--- a/George_Interview_Question_Catalogue_v2017_10_31_001a.xlsx
+++ b/George_Interview_Question_Catalogue_v2017_10_31_001a.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TW\Desktop\Interview_with_George_Catalogue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Git\ENGS101PWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="9300" xr2:uid="{06A002A6-B659-4B2F-8D4B-A45FF57A851F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="George_Answer_Clips" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -345,7 +345,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB94A12-CFB5-464F-9CD8-052CB0741E7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -667,10 +667,10 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="2" bestFit="1" customWidth="1"/>
@@ -685,7 +685,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:9" s="4" customFormat="1" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -1057,19 +1057,19 @@
     <sortCondition ref="G5:G17"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{DB3AC98A-7752-4EA5-A164-76855BE553D7}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{D6420A90-2F32-4D32-BA5B-A7A52C5ED8FB}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{8379E5B1-7C7E-4BF4-82A2-701B0CD18F9E}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{21C6AE6B-6637-4212-BBA8-5F0A82D30646}"/>
-    <hyperlink ref="C14" r:id="rId5" xr:uid="{B82F82F4-EE2E-4692-9C6F-40C2614C2E7B}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{2063D702-D991-47A8-93D8-D143439FDACD}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{84D75434-CE72-47C8-9909-D7E872C90B00}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{0A720F8A-1BB2-4563-B89B-1A5B6D5E57C0}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{91A9E37F-D7BB-4F72-9867-593390553A0E}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{1842A4B6-CD50-4F2C-912A-5592E9B056A5}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{EFA567B8-4038-44CB-A373-551A275F9B6B}"/>
-    <hyperlink ref="C9" r:id="rId12" xr:uid="{5919C2B0-9C51-413E-B497-701E172244C2}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{9D6B72D8-70A1-4787-A71D-7FFD69CCB97E}"/>
+    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C17" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="C9" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
